--- a/Task 01 - Tabela verdade e expressao logica/all.xlsx
+++ b/Task 01 - Tabela verdade e expressao logica/all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Cloud\gdrive\dev\Git Repo\SenacRS\SenacRS-Organizacao-Computadores\Task 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Cloud\gdrive\dev\Git Repo\SenacRS\SenacRS-Organizacao-Computadores\Task 01 - Tabela verdade e expressao logica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C7924-BB0A-4070-9C85-1E1A3A4FED71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CC62BC-A5C7-4E68-8C16-D1B09A46F2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ex5" sheetId="10" r:id="rId6"/>
     <sheet name="ex7" sheetId="13" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1543,15 +1543,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="106" bestFit="1" customWidth="1"/>
   </cols>
@@ -1727,8 +1728,8 @@
         <v>3</v>
       </c>
       <c r="Q6" t="str">
-        <f t="array" ref="Q6">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(F5:F20=1,L5:L20,"")),")")</f>
-        <v>D = (A'.B.C) + (A.B'.C) + (A.B.C')</v>
+        <f t="array" ref="Q6">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(E5:E12=1,L5:L12,"")),")")</f>
+        <v>D = (A'.B'.C) + (A'.B.C') + (A'.B.C) + (A.B'.C') + (A.B'.C) + (A.B.C') + (A.B.C)</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1777,12 +1778,9 @@
         <f t="shared" si="3"/>
         <v>A'+B+C'</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q7" t="str">
-        <f t="array" ref="Q7">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(F5:F20=0,L5:L20,"")),")")</f>
-        <v>D = (A'+B'+C') . (A'.B'.C) . (A'.B.C') . (A.B'.C') . (A.B.C) . (0) . (0) . (0) . (0) . (0) . (0) . (0) . (0)</v>
+        <f t="array" ref="Q7">_xlfn.CONCAT(M4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(F5:F12=1,M5:M12,"")),")")</f>
+        <v>E = (A'.B.C) + (A.B'.C) + (A.B.C')</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1832,8 +1830,8 @@
         <v>A'+B+C</v>
       </c>
       <c r="Q8" t="str">
-        <f t="array" ref="Q8">_xlfn.CONCAT(M4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(F8:F23=1,M5:M20,"")),")")</f>
-        <v>E = (A'+B'+C') + (A'+B+C') + (A'.B.C)</v>
+        <f t="array" ref="Q8">_xlfn.CONCAT(N4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(G5:G12=1,N5:N12,"")),")")</f>
+        <v>F = (A.B.C)</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1882,10 +1880,6 @@
         <f t="shared" si="3"/>
         <v>A+B'+C'</v>
       </c>
-      <c r="Q9" t="str">
-        <f t="array" ref="Q9">_xlfn.CONCAT(M4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(F7:F22=0,M5:M20,"")),")")</f>
-        <v>E = (A'+B'+C') . (A'+B+C') . (A.B'.C) . (A.B.C') . (A+B+C) . (0) . (0) . (0) . (0) . (0) . (0) . (0) . (0)</v>
-      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1933,9 +1927,12 @@
         <f t="shared" si="3"/>
         <v>A+B'+C</v>
       </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="Q10" t="str">
-        <f t="array" ref="Q10">_xlfn.CONCAT(N4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(F10:F25=1,N5:N20,"")),")")</f>
-        <v>F = (A'+B'+C') + (A'+B'+C)</v>
+        <f t="array" ref="Q10">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(E5:E12=0,L5:L12,"")),")")</f>
+        <v>D = (A'+B'+C')</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1985,8 +1982,8 @@
         <v>A+B+C'</v>
       </c>
       <c r="Q11" t="str">
-        <f t="array" ref="Q11">_xlfn.CONCAT(N4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(F9:F24=0,N5:N20,"")),")")</f>
-        <v>F = (A'+B'+C') . (A'+B+C) . (A+B'+C') . (A+B'+C) . (A+B+C') . (A.B.C) . (0) . (0) . (0) . (0) . (0) . (0) . (0) . (0)</v>
+        <f t="array" ref="Q11">_xlfn.CONCAT(M4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(F5:F12=0,M5:M12,"")),")")</f>
+        <v>E = (A'+B'+C') . (A'+B'+C) . (A'+B+C') . (A+B'+C') . (A+B+C)</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2034,6 +2031,10 @@
       <c r="N12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A.B.C</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="array" ref="Q12">_xlfn.CONCAT(N4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(G5:G12=0,N5:N12,"")),")")</f>
+        <v>F = (A'+B'+C') . (A'+B'+C) . (A'+B+C') . (A'+B+C) . (A+B'+C') . (A+B'+C) . (A+B+C')</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2168,7 +2169,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="N6" sqref="N6:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="O6" t="str">
-        <f t="array" ref="O6">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(E5:E20=1,L5:L20,"")),")")</f>
+        <f t="array" ref="O6">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(E5:E12=1,L5:L12,"")),")")</f>
         <v>c = (g'. a. t) + (g. a'. t) + (g. a. t)</v>
       </c>
     </row>
@@ -2351,8 +2352,8 @@
         <v>4</v>
       </c>
       <c r="O7" t="str">
-        <f t="array" ref="O7">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(E5:E20=0,L5:L20,"")),")")</f>
-        <v>c = (g'+ a'+ t') . (g'+ a'+ t) . (g'+ a+ t') . (g+ a'+ t') . (g+ a+ t') . (0) . (0) . (0) . (0) . (0) . (0) . (0) . (0)</v>
+        <f t="array" ref="O7">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(E5:E12=0,L5:L12,"")),")")</f>
+        <v>c = (g'+ a'+ t') . (g'+ a'+ t) . (g'+ a+ t') . (g+ a'+ t') . (g+ a+ t')</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2636,7 +2637,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,6 +2679,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2686,7 +2688,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B7" sqref="A4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,7 +2881,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="D9" sqref="A4:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,12 +3348,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -3509,7 +3513,7 @@
         <v>3</v>
       </c>
       <c r="O6" t="str">
-        <f t="array" ref="O6">_xlfn.CONCAT(K4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(E5:E20=1,K5:K20,"")),")")</f>
+        <f t="array" ref="O6">_xlfn.CONCAT(K4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(E5:E12=1,K5:K12,"")),")")</f>
         <v>f1 = (X'.y'.Z) + (X'.y.Z') + (X.y'.Z') + (X.y.Z)</v>
       </c>
     </row>
@@ -3552,12 +3556,9 @@
         <f t="shared" si="1"/>
         <v>X'+y+Z'</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O7" t="str">
-        <f t="array" ref="O7">_xlfn.CONCAT(K4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(E5:E20=0,K5:K20,"")),")")</f>
-        <v>f1 = (X'+y'+Z') . (X'+y+Z) . (X+y'+Z) . (X+y+Z') . (0) . (0) . (0) . (0) . (0) . (0) . (0) . (0)</v>
+        <f t="array" ref="O7">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(F5:F12=1,L5:L12,"")),")")</f>
+        <v>f2 = (X'.y.Z) + (X.y'.Z) + (X.y.Z') + (X.y.Z)</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3599,10 +3600,6 @@
         <f t="shared" si="1"/>
         <v>X'.y.Z</v>
       </c>
-      <c r="O8" t="str">
-        <f t="array" ref="O8">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(F5:F20=1,L5:L20,"")),")")</f>
-        <v>f2 = (X'.y.Z) + (X.y'.Z) + (X.y.Z') + (X.y.Z)</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3643,9 +3640,12 @@
         <f t="shared" si="1"/>
         <v>X+y'+Z'</v>
       </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O9" t="str">
-        <f t="array" ref="O9">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(F5:F20=0,L5:L20,"")),")")</f>
-        <v>f2 = (X'+y'+Z') . (X'+y'+Z) . (X'+y+Z') . (X+y'+Z') . (0) . (0) . (0) . (0) . (0) . (0) . (0) . (0)</v>
+        <f t="array" ref="O9">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(F5:F12=0,L5:L12,"")),")")</f>
+        <v>f2 = (X'+y'+Z') . (X'+y'+Z) . (X'+y+Z') . (X+y'+Z')</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3687,9 +3687,9 @@
         <f t="shared" si="1"/>
         <v>X.y'.Z</v>
       </c>
-      <c r="O10" t="e">
-        <f t="array" ref="O10">_xlfn.CONCAT(#REF!," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(F10:F25=1,#REF!,"")),")")</f>
-        <v>#REF!</v>
+      <c r="O10" t="str">
+        <f t="array" ref="O10">_xlfn.CONCAT(K4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(E5:E12=0,K5:K12,"")),")")</f>
+        <v>f1 = (X'+y'+Z') . (X'+y+Z) . (X+y'+Z) . (X+y+Z')</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3730,10 +3730,6 @@
       <c r="L11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>X.y.Z'</v>
-      </c>
-      <c r="O11" t="e">
-        <f t="array" ref="O11">_xlfn.CONCAT(#REF!," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(F9:F24=0,#REF!,"")),")")</f>
-        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3891,12 +3887,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="106" bestFit="1" customWidth="1"/>
@@ -4035,7 +4032,7 @@
         <v>3</v>
       </c>
       <c r="O6" t="str">
-        <f t="array" ref="O6">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(E5:E20=1,L5:L20,"")),")")</f>
+        <f t="array" ref="O6">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") + (",TRUE,IF(E5:K12=1,L5:L12,"")),")")</f>
         <v>f = (x'. y. z') + (x'. y. z) + (x. y'. z') + (x. y'. z)</v>
       </c>
     </row>
@@ -4075,8 +4072,8 @@
         <v>4</v>
       </c>
       <c r="O7" t="str">
-        <f t="array" ref="O7">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(E5:E20=0,L5:L20,"")),")")</f>
-        <v>f = (x'+ y'+ z') . (x'+ y'+ z) . (x+ y+ z') . (x+ y+ z) . (0) . (0) . (0) . (0) . (0) . (0) . (0) . (0)</v>
+        <f t="array" ref="O7">_xlfn.CONCAT(L4," = (",_xlfn.TEXTJOIN(") . (",TRUE,IF(E5:E12=0,L5:L12,"")),")")</f>
+        <v>f = (x'+ y'+ z') . (x'+ y'+ z) . (x+ y+ z') . (x+ y+ z)</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
